--- a/R_C14_rates calculation/data_used/TAN1810_NPP_areal.xlsx
+++ b/R_C14_rates calculation/data_used/TAN1810_NPP_areal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gutierreza/OneDrive - NIWA/NIWA/Cruises/TAN1810/RESULTS/14C/NPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147720E7-7BEC-164F-95E7-C0EBB93C1766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42281EA2-491C-DE4E-B664-0F2BE6A3E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="16640" windowHeight="13060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1186,12 +1186,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="A53:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5855,11 +5855,11 @@
         <v>15.9839874519656</v>
       </c>
       <c r="AA54">
-        <f>(Y54+Y53)*(N54-N53)/2</f>
+        <f t="shared" ref="AA54:AA59" si="1">(Y54+Y53)*(N54-N53)/2</f>
         <v>409.83155763364005</v>
       </c>
       <c r="AB54">
-        <f t="shared" ref="AB54:AB59" si="1">AB53</f>
+        <f t="shared" ref="AB54:AB59" si="2">AB53</f>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -5940,11 +5940,11 @@
         <v>0.891411169194822</v>
       </c>
       <c r="AA55">
-        <f>(Y55+Y54)*(N55-N54)/2</f>
+        <f t="shared" si="1"/>
         <v>237.56689034135428</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -6025,11 +6025,11 @@
         <v>0.22569855339306399</v>
       </c>
       <c r="AA56">
-        <f>(Y56+Y55)*(N56-N55)/2</f>
+        <f t="shared" si="1"/>
         <v>35.985597160708352</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -6113,11 +6113,11 @@
         <v>0.18289768153961999</v>
       </c>
       <c r="AA57">
-        <f>(Y57+Y56)*(N57-N56)/2</f>
+        <f t="shared" si="1"/>
         <v>17.082824383271124</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -6201,11 +6201,11 @@
         <v>0.24534525032806501</v>
       </c>
       <c r="AA58">
-        <f>(Y58+Y57)*(N58-N57)/2</f>
+        <f t="shared" si="1"/>
         <v>7.6619190897580003</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
         <v>2.9220303373487999</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046.8511828414235</v>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10B5B2B-3775-1F42-BFE7-A6B995316739}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
